--- a/data/trans_camb/IP24_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 1,58</t>
+          <t>-16,72; 1,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,3; -0,07</t>
+          <t>-17,29; -0,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 13,33</t>
+          <t>-9,91; 12,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 2,58</t>
+          <t>-16,52; 3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 8,06</t>
+          <t>-13,16; 9,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 16,11</t>
+          <t>-12,78; 15,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -0,77</t>
+          <t>-13,89; -0,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 0,64</t>
+          <t>-13,29; 1,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 10,35</t>
+          <t>-8,24; 10,25</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,89; 12,87</t>
+          <t>-67,19; 9,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,71; 3,78</t>
+          <t>-70,82; 2,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,25; 87,51</t>
+          <t>-42,03; 79,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,93; 15,36</t>
+          <t>-58,61; 17,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 41,47</t>
+          <t>-46,22; 47,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,02; 77,49</t>
+          <t>-46,63; 79,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,42; -3,08</t>
+          <t>-53,69; -2,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 4,03</t>
+          <t>-53,27; 8,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 53,48</t>
+          <t>-33,45; 52,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -2,15</t>
+          <t>-10,64; -2,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -3,85</t>
+          <t>-12,11; -3,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,35; -1,25</t>
+          <t>-10,6; -1,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 0,69</t>
+          <t>-9,31; 0,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 0,2</t>
+          <t>-9,17; 0,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 0,71</t>
+          <t>-10,92; 0,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -2,31</t>
+          <t>-8,38; -2,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -3,09</t>
+          <t>-9,08; -3,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -2,08</t>
+          <t>-9,31; -1,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -10,26</t>
+          <t>-42,87; -11,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -18,41</t>
+          <t>-48,46; -17,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -5,68</t>
+          <t>-42,66; -6,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,99; 3,03</t>
+          <t>-31,62; 1,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 1,01</t>
+          <t>-32,01; 0,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 3,77</t>
+          <t>-38,44; 3,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,51; -10,28</t>
+          <t>-32,63; -9,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,49; -12,9</t>
+          <t>-35,11; -13,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,47; -9,06</t>
+          <t>-36,06; -7,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,98; -2,88</t>
+          <t>-17,43; -2,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 4,41</t>
+          <t>-10,47; 4,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -5,03</t>
+          <t>-19,54; -4,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 1,32</t>
+          <t>-13,03; 1,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 5,59</t>
+          <t>-8,25; 5,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,81; -0,35</t>
+          <t>-14,15; -0,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,71; -2,87</t>
+          <t>-13,26; -3,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 3,57</t>
+          <t>-7,62; 3,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,02; -4,97</t>
+          <t>-15,33; -5,11</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,71; -10,7</t>
+          <t>-56,54; -11,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 18,84</t>
+          <t>-33,08; 19,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,72; -21,24</t>
+          <t>-61,63; -19,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 5,95</t>
+          <t>-46,36; 8,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 27,66</t>
+          <t>-30,14; 29,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,12; -0,91</t>
+          <t>-53,06; -2,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-45,71; -10,7</t>
+          <t>-46,88; -14,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 15,82</t>
+          <t>-27,21; 13,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,33; -21,53</t>
+          <t>-53,49; -21,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -4,35</t>
+          <t>-10,8; -4,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,99; -3,4</t>
+          <t>-9,8; -3,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -3,01</t>
+          <t>-10,63; -3,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -1,58</t>
+          <t>-8,27; -1,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,42</t>
+          <t>-6,99; 0,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -1,38</t>
+          <t>-9,33; -0,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -3,78</t>
+          <t>-8,98; -3,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -2,57</t>
+          <t>-7,56; -2,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -3,43</t>
+          <t>-9,24; -3,28</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,71; -19,69</t>
+          <t>-43,15; -19,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -15,76</t>
+          <t>-38,53; -14,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,78; -12,84</t>
+          <t>-42,43; -14,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,27; -6,24</t>
+          <t>-30,63; -5,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 2,06</t>
+          <t>-25,37; 2,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,95; -4,42</t>
+          <t>-34,87; -2,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,28; -16,25</t>
+          <t>-35,05; -16,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,05; -10,87</t>
+          <t>-29,09; -10,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,92; -14,62</t>
+          <t>-35,59; -13,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP24_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP24_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>4,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,35; 2,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,27; 9,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,5; 30,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; 1,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,5; 0,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; 14,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,9; -0,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,69; 0,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 17,87</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-29,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-33,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>19,25%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,24; 16,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,19; 52,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,22; 155,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,17; 12,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,97; 5,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,86; 96,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,35; -2,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,89; 5,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,67; 94,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,25</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,39</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-3,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 1,31</t>
+          <t>-8,87; 0,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,29; -0,09</t>
+          <t>-8,43; 0,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 12,8</t>
+          <t>-8,05; 11,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 3,05</t>
+          <t>-10,35; -2,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 9,24</t>
+          <t>-11,6; -3,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 15,47</t>
+          <t>-9,12; 2,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -0,46</t>
+          <t>-8,51; -2,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 1,29</t>
+          <t>-9,09; -3,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 10,25</t>
+          <t>-7,16; 4,93</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-38,19%</t>
+          <t>-16,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-44,65%</t>
+          <t>-16,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,55%</t>
+          <t>-28,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>-35,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>-20,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-33,11%</t>
+          <t>-21,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-27,76%</t>
+          <t>-24,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>-12,99%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,19; 9,91</t>
+          <t>-31,61; 2,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,82; 2,39</t>
+          <t>-30,13; 1,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,03; 79,13</t>
+          <t>-29,47; 49,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,61; 17,83</t>
+          <t>-42,59; -12,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 47,1</t>
+          <t>-47,53; -17,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 79,42</t>
+          <t>-38,41; 12,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,69; -2,35</t>
+          <t>-32,7; -10,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,27; 8,5</t>
+          <t>-35,4; -14,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 52,96</t>
+          <t>-28,65; 22,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-11,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>-8,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -2,32</t>
+          <t>-12,76; 2,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,11; -3,78</t>
+          <t>-8,41; 6,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,6; -1,46</t>
+          <t>-13,83; 0,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 0,21</t>
+          <t>-17,83; -3,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 0,05</t>
+          <t>-10,14; 4,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 0,75</t>
+          <t>-18,62; -4,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; -2,17</t>
+          <t>-13,01; -2,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -3,03</t>
+          <t>-7,5; 3,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -1,85</t>
+          <t>-13,7; -3,25</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,11%</t>
+          <t>-24,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,06%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-27,35%</t>
+          <t>-27,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,43%</t>
+          <t>-38,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,51%</t>
+          <t>-10,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,49%</t>
+          <t>-40,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-21,97%</t>
+          <t>-31,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,99%</t>
+          <t>-7,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-24,73%</t>
+          <t>-34,81%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,87; -11,27</t>
+          <t>-48,41; 12,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,46; -17,77</t>
+          <t>-31,01; 31,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,66; -6,18</t>
+          <t>-51,24; 4,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 1,09</t>
+          <t>-56,65; -14,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 0,17</t>
+          <t>-32,06; 19,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 3,84</t>
+          <t>-60,92; -15,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,63; -9,44</t>
+          <t>-46,14; -10,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,11; -13,05</t>
+          <t>-26,87; 15,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,06; -7,86</t>
+          <t>-48,78; -13,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,08</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>-3,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -2,18</t>
+          <t>-8,28; -1,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 4,56</t>
+          <t>-7,23; 0,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,54; -4,74</t>
+          <t>-6,78; 10,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 1,39</t>
+          <t>-10,88; -3,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 5,77</t>
+          <t>-9,99; -3,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,15; -0,64</t>
+          <t>-8,99; -0,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,26; -3,26</t>
+          <t>-8,62; -3,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 3,19</t>
+          <t>-7,62; -2,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -5,11</t>
+          <t>-6,94; 1,3</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-38,3%</t>
+          <t>-19,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,84%</t>
+          <t>-13,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-44,0%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-24,2%</t>
+          <t>-31,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>-28,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-32,13%</t>
+          <t>-23,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-31,54%</t>
+          <t>-25,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,94%</t>
+          <t>-20,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-38,38%</t>
+          <t>-15,65%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,54; -11,13</t>
+          <t>-30,25; -4,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 19,87</t>
+          <t>-26,46; 1,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,63; -19,86</t>
+          <t>-25,98; 41,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 8,09</t>
+          <t>-42,71; -18,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 29,25</t>
+          <t>-39,93; -15,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,06; -2,98</t>
+          <t>-36,18; -1,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,88; -14,32</t>
+          <t>-33,79; -16,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 13,79</t>
+          <t>-29,74; -11,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,49; -21,58</t>
+          <t>-27,86; 5,73</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-7,47</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-6,61</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-3,34</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-5,75</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-6,25</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-5,01</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-6,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-10,8; -4,24</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; -3,21</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-10,63; -3,11</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-8,27; -1,5</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-6,99; 0,59</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-9,33; -0,49</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; -3,75</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; -2,45</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; -3,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-31,9%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-28,24%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-29,48%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-19,64%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-13,19%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-22,74%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-25,68%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-20,61%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-26,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-43,15; -19,0</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-38,53; -14,98</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-42,43; -14,01</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-30,63; -5,89</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-25,37; 2,59</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-34,87; -2,23</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-35,05; -16,22</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-29,09; -10,77</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-35,59; -13,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
